--- a/Tokyo.xlsx
+++ b/Tokyo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895F5022-8D18-4FCB-91C1-A5C41763D0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE001C1-FEF1-4674-8352-60BDD94A946F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,16 +436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -478,25 +475,25 @@
         <v>35</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>23.14</v>
       </c>
       <c r="D2">
         <v>138</v>
       </c>
       <c r="E2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>18.87</v>
       </c>
       <c r="G2">
-        <v>453</v>
+        <v>1446</v>
       </c>
       <c r="H2">
-        <v>-3.5</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -504,25 +501,25 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>44.95</v>
       </c>
       <c r="D3">
         <v>138</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>59.85</v>
       </c>
       <c r="G3">
-        <v>479</v>
+        <v>1378</v>
       </c>
       <c r="H3">
-        <v>-3.6</v>
+        <v>-12.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -530,25 +527,25 @@
         <v>35</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>12.79</v>
       </c>
       <c r="D4">
         <v>138</v>
       </c>
       <c r="E4">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>31.77</v>
       </c>
       <c r="G4">
-        <v>529</v>
+        <v>1341</v>
       </c>
       <c r="H4">
-        <v>2.5</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -559,22 +556,22 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>13.57</v>
       </c>
       <c r="D5">
         <v>138</v>
       </c>
       <c r="E5">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>17.63</v>
       </c>
       <c r="G5">
-        <v>540</v>
+        <v>1288</v>
       </c>
       <c r="H5">
-        <v>-1.1000000000000001</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -582,25 +579,25 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>55.66</v>
       </c>
       <c r="D6">
         <v>138</v>
       </c>
       <c r="E6">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F6">
-        <v>28</v>
+        <v>34.08</v>
       </c>
       <c r="G6">
-        <v>505</v>
+        <v>1226</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -608,25 +605,25 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>59.13</v>
       </c>
       <c r="D7">
         <v>138</v>
       </c>
       <c r="E7">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>8.17</v>
       </c>
       <c r="G7">
-        <v>514</v>
+        <v>1113</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>-16.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -634,25 +631,25 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>71</v>
+        <v>56.69</v>
       </c>
       <c r="D8">
         <v>138</v>
       </c>
       <c r="E8">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8">
-        <v>47</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="G8">
-        <v>613</v>
+        <v>1014</v>
       </c>
       <c r="H8">
-        <v>11.8</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -660,25 +657,25 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>69</v>
+        <v>48.56</v>
       </c>
       <c r="D9">
         <v>138</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>26</v>
+        <v>27.02</v>
       </c>
       <c r="G9">
-        <v>724</v>
+        <v>880</v>
       </c>
       <c r="H9">
-        <v>1.6</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -686,25 +683,25 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>38.57</v>
       </c>
       <c r="D10">
         <v>138</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>10.06</v>
       </c>
       <c r="G10">
-        <v>842</v>
+        <v>798</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>-9.25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -712,25 +709,25 @@
         <v>35</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>24.45</v>
       </c>
       <c r="D11">
         <v>138</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11">
-        <v>48</v>
+        <v>59.22</v>
       </c>
       <c r="G11">
-        <v>980</v>
+        <v>714</v>
       </c>
       <c r="H11">
-        <v>7.6</v>
+        <v>-4.9000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -738,25 +735,25 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>43</v>
+        <v>15.88</v>
       </c>
       <c r="D12">
         <v>138</v>
       </c>
       <c r="E12">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F12">
-        <v>34</v>
+        <v>44.49</v>
       </c>
       <c r="G12">
-        <v>1146</v>
+        <v>653</v>
       </c>
       <c r="H12">
-        <v>3.4</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -764,25 +761,25 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>95</v>
+        <v>59.66</v>
       </c>
       <c r="D13">
         <v>138</v>
       </c>
       <c r="E13">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F13">
-        <v>27</v>
+        <v>31.61</v>
       </c>
       <c r="G13">
-        <v>1308</v>
+        <v>596</v>
       </c>
       <c r="H13">
-        <v>13.4</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -790,25 +787,207 @@
         <v>35</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14">
+        <v>50.1</v>
+      </c>
+      <c r="D14">
+        <v>138</v>
+      </c>
+      <c r="E14">
+        <v>54</v>
+      </c>
+      <c r="F14">
+        <v>42.78</v>
+      </c>
+      <c r="G14">
+        <v>575</v>
+      </c>
+      <c r="H14">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>47.81</v>
+      </c>
+      <c r="D15">
+        <v>138</v>
+      </c>
+      <c r="E15">
         <v>55</v>
       </c>
-      <c r="D14">
-        <v>138</v>
-      </c>
-      <c r="E14">
-        <v>46</v>
-      </c>
-      <c r="F14">
-        <v>19</v>
-      </c>
-      <c r="G14">
-        <v>1444</v>
-      </c>
-      <c r="H14">
-        <v>-0.6</v>
+      <c r="F15">
+        <v>28.6</v>
+      </c>
+      <c r="G15">
+        <v>549</v>
+      </c>
+      <c r="H15">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>20.36</v>
+      </c>
+      <c r="D16">
+        <v>138</v>
+      </c>
+      <c r="E16">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>56.13</v>
+      </c>
+      <c r="G16">
+        <v>552</v>
+      </c>
+      <c r="H16">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>29.87</v>
+      </c>
+      <c r="D17">
+        <v>138</v>
+      </c>
+      <c r="E17">
+        <v>55</v>
+      </c>
+      <c r="F17">
+        <v>48.44</v>
+      </c>
+      <c r="G17">
+        <v>593</v>
+      </c>
+      <c r="H17">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>5.04</v>
+      </c>
+      <c r="D18">
+        <v>138</v>
+      </c>
+      <c r="E18">
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <v>13.1</v>
+      </c>
+      <c r="G18">
+        <v>586</v>
+      </c>
+      <c r="H18">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>58.66</v>
+      </c>
+      <c r="D19">
+        <v>138</v>
+      </c>
+      <c r="E19">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>35.68</v>
+      </c>
+      <c r="G19">
+        <v>552</v>
+      </c>
+      <c r="H19">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>18.55</v>
+      </c>
+      <c r="D20">
+        <v>138</v>
+      </c>
+      <c r="E20">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>52.6</v>
+      </c>
+      <c r="G20">
+        <v>564</v>
+      </c>
+      <c r="H20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>11.07</v>
+      </c>
+      <c r="D21">
+        <v>138</v>
+      </c>
+      <c r="E21">
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <v>15.76</v>
+      </c>
+      <c r="G21">
+        <v>497</v>
+      </c>
+      <c r="H21">
+        <v>-15.4</v>
       </c>
     </row>
   </sheetData>
